--- a/Trabalho 2/Meta 2/ResultadosStelyt.xlsx
+++ b/Trabalho 2/Meta 2/ResultadosStelyt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgmfe\Documents\GitHub\Projeto-IAA\Trabalho 2\Meta 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13147E9C-00A1-4A28-9916-EC5148E3A7E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6F9034-3943-45B5-B198-E1755056D6F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{1C22F075-1BF0-EA43-8A90-9BDC22ECA8ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{1C22F075-1BF0-EA43-8A90-9BDC22ECA8ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NoObstacles" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="564">
   <si>
     <t>Trepa Colinas</t>
   </si>
@@ -1602,6 +1602,132 @@
   </si>
   <si>
     <t>Melhor resultado: T = 100.000, alfa = 0,5</t>
+  </si>
+  <si>
+    <t>Alfa</t>
+  </si>
+  <si>
+    <t>2490817p.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>1 4 2 6 5 3</t>
+  </si>
+  <si>
+    <t>2491024p.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>6 5 3 4 2 1</t>
+  </si>
+  <si>
+    <t>2491115p.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>2491159p.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>2491238p.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>2491321p.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>2491353p.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>2491434p.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>2491449p.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>2491503p.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>Para mapas simples, o algoritmo de recristalização simulada aparenta não ser uma boa forma de atingir a melhor solução</t>
+  </si>
+  <si>
+    <t>16 6 10 15 18 12 11 13 14 17 20 19 9 3 5 8 2 4 7 1</t>
+  </si>
+  <si>
+    <t>16 15 17 20 18 14 10 6 7 1 4 2 5 8 13 11 12 19 9 3</t>
+  </si>
+  <si>
+    <t>16 17 20 18 11 12 5 4 8 13 14 15 10 6 7 1 2 3 9 19</t>
+  </si>
+  <si>
+    <t>16 15 14 17 20 13 10 7 8 9 12 11 18 19 3 5 2 4 1 6</t>
+  </si>
+  <si>
+    <t>16 15 14 10 6 7 1 4 8 11 12 9 19 18 20 17 13 5 3 2</t>
+  </si>
+  <si>
+    <t>25115741a.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>25115648a.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>25115550a.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>25115501a.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>25115359a.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>25115931a.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>25120045p.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>25120120p.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>25120258p.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>25120327p.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>Vamos aumentar a temperatura inicial para ver se os resultados melhoram</t>
+  </si>
+  <si>
+    <t>Os resultados foram piores que o trepa colinas. Vamos tentar alterar a abordagem</t>
+  </si>
+  <si>
+    <t>16 6 10 14 13 8 7 1 4 2 5 3 9 12 11 18 15 17 20 19</t>
+  </si>
+  <si>
+    <t>16 6 1 2 3 5 8 4 7 10 15 14 13 11 12 9 19 18 20 17</t>
+  </si>
+  <si>
+    <t>2512722p.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>2512839p.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>2520355p.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>16 10 12 19 9 3 5 4 2 1 6 7 8 11 13 14 15 17 20 18</t>
+  </si>
+  <si>
+    <t>16 14 13 11 12 3 2 4 10 15 17 20 18 19 9 5 8 7 6 1</t>
+  </si>
+  <si>
+    <t>2520605p.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>16 15 17 14 10 6 7 4 1 2 8 5 3 9 12 11 13 18 20 19</t>
+  </si>
+  <si>
+    <t>2520706p.m._SimulatedAnnealingOptimiser</t>
+  </si>
+  <si>
+    <t>Alguns resultados foram melhores, outros não. A partir de certa altura o algoritmo torna se um trepa colinas</t>
   </si>
 </sst>
 </file>
@@ -2710,63 +2836,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49132A7-82A8-6E4C-B1CF-2A3832962810}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2776,23 +2907,23 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
         <v>301</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>74</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>29</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2802,23 +2933,23 @@
       <c r="E5">
         <v>500</v>
       </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
         <v>303</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>50</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>31</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2828,23 +2959,23 @@
       <c r="E6">
         <v>1000</v>
       </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6" t="s">
         <v>305</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>29</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>31</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2854,23 +2985,23 @@
       <c r="E7">
         <v>1500</v>
       </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7" t="s">
         <v>306</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>30</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2880,26 +3011,26 @@
       <c r="E8">
         <v>2000</v>
       </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8" t="s">
         <v>307</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>61</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>25</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>310</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2909,23 +3040,23 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>1000</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="H9">
+        <v>1000</v>
+      </c>
+      <c r="I9" t="s">
         <v>312</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>603</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>27</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2935,23 +3066,23 @@
       <c r="E10">
         <v>500</v>
       </c>
-      <c r="G10">
-        <v>1000</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="H10">
+        <v>1000</v>
+      </c>
+      <c r="I10" t="s">
         <v>307</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>414</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>25</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2961,23 +3092,23 @@
       <c r="E11">
         <v>1000</v>
       </c>
-      <c r="G11">
-        <v>1000</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="H11">
+        <v>1000</v>
+      </c>
+      <c r="I11" t="s">
         <v>307</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>629</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>25</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2987,65 +3118,65 @@
       <c r="E12">
         <v>1500</v>
       </c>
-      <c r="G12">
-        <v>1000</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="H12">
+        <v>1000</v>
+      </c>
+      <c r="I12" t="s">
         <v>307</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>697</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>25</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>5</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>10</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>8</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>9</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>11</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>12</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3055,23 +3186,23 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="G24">
-        <v>100</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24" t="s">
         <v>318</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>10</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>29</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -3081,23 +3212,23 @@
       <c r="E25">
         <v>500</v>
       </c>
-      <c r="G25">
-        <v>100</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25" t="s">
         <v>307</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>19</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>25</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -3107,23 +3238,23 @@
       <c r="E26">
         <v>1000</v>
       </c>
-      <c r="G26">
-        <v>100</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26" t="s">
         <v>318</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>22</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>29</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -3133,23 +3264,23 @@
       <c r="E27">
         <v>1500</v>
       </c>
-      <c r="G27">
-        <v>100</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27" t="s">
         <v>307</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>4</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>25</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -3159,23 +3290,23 @@
       <c r="E28">
         <v>2000</v>
       </c>
-      <c r="G28">
-        <v>100</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="I28" t="s">
         <v>323</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>3</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>29</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3185,26 +3316,26 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="G29">
-        <v>1000</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="H29">
+        <v>1000</v>
+      </c>
+      <c r="I29" t="s">
         <v>318</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>10</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>29</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>325</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -3214,23 +3345,23 @@
       <c r="E30">
         <v>1000</v>
       </c>
-      <c r="G30">
-        <v>1000</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="H30">
+        <v>1000</v>
+      </c>
+      <c r="I30" t="s">
         <v>318</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>22</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>29</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -3240,34 +3371,34 @@
       <c r="E31">
         <v>2000</v>
       </c>
-      <c r="G31">
-        <v>1000</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="H31">
+        <v>1000</v>
+      </c>
+      <c r="I31" t="s">
         <v>318</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>10</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>29</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="H36" t="s">
+      <c r="J36" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>5</v>
       </c>
@@ -3275,75 +3406,419 @@
         <v>2</v>
       </c>
       <c r="F37" t="s">
+        <v>402</v>
+      </c>
+      <c r="G37" t="s">
         <v>182</v>
       </c>
       <c r="H37" t="s">
+        <v>522</v>
+      </c>
+      <c r="J37" t="s">
         <v>10</v>
       </c>
-      <c r="I37" t="s">
+      <c r="K37" t="s">
+        <v>405</v>
+      </c>
+      <c r="L37" t="s">
         <v>8</v>
       </c>
-      <c r="J37" t="s">
+      <c r="M37" t="s">
         <v>9</v>
       </c>
-      <c r="K37" t="s">
+      <c r="N37" t="s">
         <v>11</v>
       </c>
-      <c r="L37" t="s">
+      <c r="O37" t="s">
         <v>12</v>
       </c>
-      <c r="M37" t="s">
+      <c r="P37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>407</v>
+      </c>
+      <c r="G39">
+        <v>100000</v>
+      </c>
+      <c r="H39">
+        <v>0.5</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39">
+        <v>3.8146970000000002E-2</v>
+      </c>
+      <c r="L39" t="s">
+        <v>301</v>
+      </c>
+      <c r="M39">
+        <v>43</v>
+      </c>
+      <c r="N39">
+        <v>29</v>
+      </c>
+      <c r="O39" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>500</v>
+      </c>
+      <c r="F40" t="s">
+        <v>407</v>
+      </c>
+      <c r="G40">
+        <v>100000</v>
+      </c>
+      <c r="H40">
+        <v>0.5</v>
+      </c>
+      <c r="J40">
+        <v>100</v>
+      </c>
+      <c r="K40">
+        <v>5.9604639999999995E-4</v>
+      </c>
+      <c r="L40" t="s">
+        <v>524</v>
+      </c>
+      <c r="M40">
+        <v>44</v>
+      </c>
+      <c r="N40">
+        <v>34</v>
+      </c>
+      <c r="O40" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <v>1000</v>
+      </c>
+      <c r="F41" t="s">
+        <v>407</v>
+      </c>
+      <c r="G41">
+        <v>100000</v>
+      </c>
+      <c r="H41">
+        <v>0.5</v>
+      </c>
+      <c r="J41">
+        <v>100</v>
+      </c>
+      <c r="K41">
+        <v>3.8146970000000002E-2</v>
+      </c>
+      <c r="L41" t="s">
+        <v>526</v>
+      </c>
+      <c r="M41">
+        <v>34</v>
+      </c>
+      <c r="N41">
+        <v>30</v>
+      </c>
+      <c r="O41" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <v>1500</v>
+      </c>
+      <c r="F42" t="s">
+        <v>407</v>
+      </c>
+      <c r="G42">
+        <v>100000</v>
+      </c>
+      <c r="H42">
+        <v>0.5</v>
+      </c>
+      <c r="J42">
+        <v>100</v>
+      </c>
+      <c r="K42">
+        <v>0.3051758</v>
+      </c>
+      <c r="L42" t="s">
+        <v>323</v>
+      </c>
+      <c r="M42">
+        <v>26</v>
+      </c>
+      <c r="N42">
+        <v>29</v>
+      </c>
+      <c r="O42" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43">
+        <v>2000</v>
+      </c>
+      <c r="F43" t="s">
+        <v>407</v>
+      </c>
+      <c r="G43">
+        <v>100000</v>
+      </c>
+      <c r="H43">
+        <v>0.5</v>
+      </c>
+      <c r="J43">
+        <v>100</v>
+      </c>
+      <c r="K43">
+        <v>3.8146970000000002E-2</v>
+      </c>
+      <c r="L43" t="s">
+        <v>301</v>
+      </c>
+      <c r="M43">
+        <v>42</v>
+      </c>
+      <c r="N43">
+        <v>29</v>
+      </c>
+      <c r="O43" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>1000</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>407</v>
+      </c>
+      <c r="G44">
+        <v>100000</v>
+      </c>
+      <c r="H44">
+        <v>0.5</v>
+      </c>
+      <c r="J44">
+        <v>1000</v>
+      </c>
+      <c r="K44">
+        <v>3.8146970000000002E-2</v>
+      </c>
+      <c r="L44" t="s">
+        <v>301</v>
+      </c>
+      <c r="M44">
+        <v>43</v>
+      </c>
+      <c r="N44">
+        <v>29</v>
+      </c>
+      <c r="O44" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>1000</v>
+      </c>
+      <c r="E45">
+        <v>500</v>
+      </c>
+      <c r="F45" t="s">
+        <v>407</v>
+      </c>
+      <c r="G45">
+        <v>100000</v>
+      </c>
+      <c r="H45">
+        <v>0.5</v>
+      </c>
+      <c r="J45">
+        <v>1000</v>
+      </c>
+      <c r="K45" s="4">
+        <v>3.6379789999999998E-8</v>
+      </c>
+      <c r="L45" t="s">
+        <v>307</v>
+      </c>
+      <c r="M45">
+        <v>105</v>
+      </c>
+      <c r="N45">
+        <v>25</v>
+      </c>
+      <c r="O45" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>1000</v>
+      </c>
+      <c r="E46">
+        <v>1000</v>
+      </c>
+      <c r="F46" t="s">
+        <v>407</v>
+      </c>
+      <c r="G46">
+        <v>100000</v>
+      </c>
+      <c r="H46">
+        <v>0.5</v>
+      </c>
+      <c r="J46">
+        <v>1000</v>
+      </c>
+      <c r="K46">
+        <v>3.8146970000000002E-2</v>
+      </c>
+      <c r="L46" t="s">
+        <v>526</v>
+      </c>
+      <c r="M46">
+        <v>34</v>
+      </c>
+      <c r="N46">
+        <v>30</v>
+      </c>
+      <c r="O46" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>1000</v>
+      </c>
+      <c r="E47">
+        <v>1500</v>
+      </c>
+      <c r="F47" t="s">
+        <v>407</v>
+      </c>
+      <c r="G47">
+        <v>100000</v>
+      </c>
+      <c r="H47">
+        <v>0.5</v>
+      </c>
+      <c r="J47">
+        <v>1000</v>
+      </c>
+      <c r="K47">
+        <v>0.3051758</v>
+      </c>
+      <c r="L47" t="s">
+        <v>323</v>
+      </c>
+      <c r="M47">
+        <v>26</v>
+      </c>
+      <c r="N47">
+        <v>29</v>
+      </c>
+      <c r="O47" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>23</v>
+      </c>
+      <c r="D48">
+        <v>1000</v>
+      </c>
+      <c r="E48">
+        <v>2000</v>
+      </c>
+      <c r="F48" t="s">
+        <v>407</v>
+      </c>
+      <c r="G48">
+        <v>100000</v>
+      </c>
+      <c r="H48">
+        <v>0.5</v>
+      </c>
+      <c r="J48">
+        <v>1000</v>
+      </c>
+      <c r="K48">
+        <v>3.8146970000000002E-2</v>
+      </c>
+      <c r="L48" t="s">
+        <v>301</v>
+      </c>
+      <c r="M48">
+        <v>42</v>
+      </c>
+      <c r="N48">
+        <v>29</v>
+      </c>
+      <c r="O48" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -6636,10 +7111,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815C517B-9D4B-4F5C-AE56-576C3B67B94A}">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H49" sqref="H49:J49"/>
+    <sheetView tabSelected="1" topLeftCell="E46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O79" sqref="O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6652,7 +7127,9 @@
     <col min="8" max="8" width="42.375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
@@ -7749,7 +8226,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>226</v>
       </c>
@@ -7775,18 +8252,18 @@
         <v>401</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
       </c>
-      <c r="H53" t="s">
+      <c r="J53" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>5</v>
       </c>
@@ -7794,75 +8271,600 @@
         <v>2</v>
       </c>
       <c r="F54" t="s">
+        <v>402</v>
+      </c>
+      <c r="G54" t="s">
         <v>182</v>
       </c>
       <c r="H54" t="s">
+        <v>522</v>
+      </c>
+      <c r="J54" t="s">
         <v>10</v>
       </c>
-      <c r="I54" t="s">
+      <c r="K54" t="s">
+        <v>405</v>
+      </c>
+      <c r="L54" t="s">
         <v>8</v>
       </c>
-      <c r="J54" t="s">
+      <c r="M54" t="s">
         <v>9</v>
       </c>
-      <c r="K54" t="s">
+      <c r="N54" t="s">
         <v>11</v>
       </c>
-      <c r="L54" t="s">
+      <c r="O54" t="s">
         <v>12</v>
       </c>
-      <c r="M54" t="s">
+      <c r="P54" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>10000</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>407</v>
+      </c>
+      <c r="G56">
+        <v>100000</v>
+      </c>
+      <c r="H56">
+        <v>0.5</v>
+      </c>
+      <c r="J56">
+        <v>10000</v>
+      </c>
+      <c r="K56" s="4">
+        <v>1.084202E-14</v>
+      </c>
+      <c r="L56" t="s">
+        <v>536</v>
+      </c>
+      <c r="M56">
+        <v>1170</v>
+      </c>
+      <c r="N56">
+        <v>92</v>
+      </c>
+      <c r="O56" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>10000</v>
+      </c>
+      <c r="E57">
+        <v>500</v>
+      </c>
+      <c r="F57" t="s">
+        <v>407</v>
+      </c>
+      <c r="G57">
+        <v>100000</v>
+      </c>
+      <c r="H57">
+        <v>0.5</v>
+      </c>
+      <c r="J57">
+        <v>10000</v>
+      </c>
+      <c r="K57" s="4">
+        <v>5.4210109999999999E-15</v>
+      </c>
+      <c r="L57" t="s">
+        <v>537</v>
+      </c>
+      <c r="M57">
+        <v>867</v>
+      </c>
+      <c r="N57">
+        <v>82</v>
+      </c>
+      <c r="O57" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>10000</v>
+      </c>
+      <c r="E58">
+        <v>1000</v>
+      </c>
+      <c r="F58" t="s">
+        <v>407</v>
+      </c>
+      <c r="G58">
+        <v>100000</v>
+      </c>
+      <c r="H58">
+        <v>0.5</v>
+      </c>
+      <c r="J58">
+        <v>10000</v>
+      </c>
+      <c r="K58" s="4">
+        <v>2.168404E-14</v>
+      </c>
+      <c r="L58" t="s">
+        <v>538</v>
+      </c>
+      <c r="M58">
+        <v>1264</v>
+      </c>
+      <c r="N58">
+        <v>87</v>
+      </c>
+      <c r="O58" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>10000</v>
+      </c>
+      <c r="E59">
+        <v>1500</v>
+      </c>
+      <c r="F59" t="s">
+        <v>407</v>
+      </c>
+      <c r="G59">
+        <v>100000</v>
+      </c>
+      <c r="H59">
+        <v>0.5</v>
+      </c>
+      <c r="J59">
+        <v>10000</v>
+      </c>
+      <c r="K59" s="4">
+        <v>2.2204460000000001E-11</v>
+      </c>
+      <c r="L59" t="s">
+        <v>539</v>
+      </c>
+      <c r="M59">
+        <v>788</v>
+      </c>
+      <c r="N59">
+        <v>92</v>
+      </c>
+      <c r="O59" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>10000</v>
+      </c>
+      <c r="E60">
+        <v>2000</v>
+      </c>
+      <c r="F60" t="s">
+        <v>407</v>
+      </c>
+      <c r="G60">
+        <v>100000</v>
+      </c>
+      <c r="H60">
+        <v>0.5</v>
+      </c>
+      <c r="J60">
+        <v>10000</v>
+      </c>
+      <c r="K60" s="4">
+        <v>1.3552529999999999E-15</v>
+      </c>
+      <c r="L60" t="s">
+        <v>540</v>
+      </c>
+      <c r="M60">
+        <v>1798</v>
+      </c>
+      <c r="N60">
+        <v>87</v>
+      </c>
+      <c r="O60" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>100000</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>407</v>
+      </c>
+      <c r="G61">
+        <v>100000</v>
+      </c>
+      <c r="H61">
+        <v>0.5</v>
+      </c>
+      <c r="J61">
+        <v>100000</v>
+      </c>
+      <c r="K61" s="4">
+        <v>1.084202E-14</v>
+      </c>
+      <c r="L61" t="s">
+        <v>536</v>
+      </c>
+      <c r="M61">
+        <v>1170</v>
+      </c>
+      <c r="N61">
+        <v>92</v>
+      </c>
+      <c r="O61" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>100000</v>
+      </c>
+      <c r="E62">
+        <v>500</v>
+      </c>
+      <c r="F62" t="s">
+        <v>407</v>
+      </c>
+      <c r="G62">
+        <v>100000</v>
+      </c>
+      <c r="H62">
+        <v>0.5</v>
+      </c>
+      <c r="J62">
+        <v>100000</v>
+      </c>
+      <c r="K62" s="4">
+        <v>5.4210109999999999E-15</v>
+      </c>
+      <c r="L62" t="s">
+        <v>537</v>
+      </c>
+      <c r="M62">
+        <v>867</v>
+      </c>
+      <c r="N62">
+        <v>82</v>
+      </c>
+      <c r="O62" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>100000</v>
+      </c>
+      <c r="E63">
+        <v>1000</v>
+      </c>
+      <c r="F63" t="s">
+        <v>407</v>
+      </c>
+      <c r="G63">
+        <v>100000</v>
+      </c>
+      <c r="H63">
+        <v>0.5</v>
+      </c>
+      <c r="J63">
+        <v>100000</v>
+      </c>
+      <c r="K63" s="4">
+        <v>2.168404E-14</v>
+      </c>
+      <c r="L63" t="s">
+        <v>538</v>
+      </c>
+      <c r="M63">
+        <v>1264</v>
+      </c>
+      <c r="N63">
+        <v>87</v>
+      </c>
+      <c r="O63" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>100000</v>
+      </c>
+      <c r="E64">
+        <v>1500</v>
+      </c>
+      <c r="F64" t="s">
+        <v>407</v>
+      </c>
+      <c r="G64">
+        <v>100000</v>
+      </c>
+      <c r="H64">
+        <v>0.5</v>
+      </c>
+      <c r="J64">
+        <v>100000</v>
+      </c>
+      <c r="K64" s="4">
+        <v>2.2204460000000001E-11</v>
+      </c>
+      <c r="L64" t="s">
+        <v>539</v>
+      </c>
+      <c r="M64">
+        <v>788</v>
+      </c>
+      <c r="N64">
+        <v>92</v>
+      </c>
+      <c r="O64" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>23</v>
+      </c>
+      <c r="D65">
+        <v>100000</v>
+      </c>
+      <c r="E65">
+        <v>2000</v>
+      </c>
+      <c r="F65" t="s">
+        <v>407</v>
+      </c>
+      <c r="G65">
+        <v>100000</v>
+      </c>
+      <c r="H65">
+        <v>0.5</v>
+      </c>
+      <c r="J65">
+        <v>100000</v>
+      </c>
+      <c r="K65" s="4">
+        <v>1.3552529999999999E-15</v>
+      </c>
+      <c r="L65" t="s">
+        <v>540</v>
+      </c>
+      <c r="M65">
+        <v>1798</v>
+      </c>
+      <c r="N65">
+        <v>87</v>
+      </c>
+      <c r="O65" t="s">
+        <v>550</v>
+      </c>
+      <c r="P65" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>100000</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>407</v>
+      </c>
+      <c r="G70">
+        <v>1000000</v>
+      </c>
+      <c r="H70">
+        <v>0.5</v>
+      </c>
+      <c r="J70">
+        <v>100000</v>
+      </c>
+      <c r="K70" s="4">
+        <v>1.355253E-14</v>
+      </c>
+      <c r="L70" t="s">
+        <v>553</v>
+      </c>
+      <c r="M70">
+        <v>750</v>
+      </c>
+      <c r="N70">
+        <v>89</v>
+      </c>
+      <c r="O70" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>100000</v>
+      </c>
+      <c r="E71">
+        <v>500</v>
+      </c>
+      <c r="F71" t="s">
+        <v>407</v>
+      </c>
+      <c r="G71">
+        <v>1000000</v>
+      </c>
+      <c r="H71">
+        <v>0.5</v>
+      </c>
+      <c r="J71">
+        <v>100000</v>
+      </c>
+      <c r="K71" s="4">
+        <v>1.9721520000000001E-25</v>
+      </c>
+      <c r="L71" t="s">
+        <v>554</v>
+      </c>
+      <c r="M71">
+        <v>4526</v>
+      </c>
+      <c r="N71">
+        <v>87</v>
+      </c>
+      <c r="O71" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>100000</v>
+      </c>
+      <c r="E72">
+        <v>1000</v>
+      </c>
+      <c r="F72" t="s">
+        <v>407</v>
+      </c>
+      <c r="G72">
+        <v>1000000</v>
+      </c>
+      <c r="H72">
+        <v>0.5</v>
+      </c>
+      <c r="J72">
+        <v>100000</v>
+      </c>
+      <c r="K72" s="4">
+        <v>2.7755580000000001E-11</v>
+      </c>
+      <c r="L72" t="s">
+        <v>558</v>
+      </c>
+      <c r="M72">
+        <v>770</v>
+      </c>
+      <c r="N72">
+        <v>87</v>
+      </c>
+      <c r="O72" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>100000</v>
+      </c>
+      <c r="E73">
+        <v>1500</v>
+      </c>
+      <c r="F73" t="s">
+        <v>407</v>
+      </c>
+      <c r="G73">
+        <v>1000000</v>
+      </c>
+      <c r="H73">
+        <v>0.5</v>
+      </c>
+      <c r="J73">
+        <v>100000</v>
+      </c>
+      <c r="K73" s="4">
+        <v>1.058791E-16</v>
+      </c>
+      <c r="L73" t="s">
+        <v>559</v>
+      </c>
+      <c r="M73">
+        <v>1000</v>
+      </c>
+      <c r="N73">
+        <v>88</v>
+      </c>
+      <c r="O73" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>100000</v>
+      </c>
+      <c r="E74">
+        <v>2000</v>
+      </c>
+      <c r="F74" t="s">
+        <v>407</v>
+      </c>
+      <c r="G74">
+        <v>1000000</v>
+      </c>
+      <c r="H74">
+        <v>0.5</v>
+      </c>
+      <c r="J74">
+        <v>100000</v>
+      </c>
+      <c r="K74" s="4">
+        <v>8.4703289999999995E-16</v>
+      </c>
+      <c r="L74" t="s">
+        <v>561</v>
+      </c>
+      <c r="M74">
+        <v>1210</v>
+      </c>
+      <c r="N74">
+        <v>77</v>
+      </c>
+      <c r="O74" t="s">
+        <v>562</v>
+      </c>
+      <c r="P74" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -7875,8 +8877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD78113-BF29-4DE2-BB0B-C375FBE02098}">
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
